--- a/data/gihun/dataset/서울시출산율모델.xlsx
+++ b/data/gihun/dataset/서울시출산율모델.xlsx
@@ -509,7 +509,7 @@
         <v>5.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005421351441611934</v>
+        <v>0.2700656796170544</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
@@ -535,7 +535,7 @@
         <v>6.1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007782906254973738</v>
+        <v>0.354289352220277</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00995191302529793</v>
+        <v>0.4848421492786954</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
@@ -587,7 +587,7 @@
         <v>4.2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01184371184371184</v>
+        <v>0.4954822954822955</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
@@ -613,7 +613,7 @@
         <v>4.2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008016528925619834</v>
+        <v>0.3527272727272727</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
@@ -639,7 +639,7 @@
         <v>4.2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005725011731581416</v>
+        <v>0.246715157203191</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
@@ -665,7 +665,7 @@
         <v>4.2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004547996272134203</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
@@ -691,7 +691,7 @@
         <v>5.4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00716708450081109</v>
+        <v>0.2706090547116944</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
@@ -717,7 +717,7 @@
         <v>5.4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008649035025017869</v>
+        <v>0.3416726233023588</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
@@ -743,7 +743,7 @@
         <v>5.4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007078601976109719</v>
+        <v>0.3440495502138328</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
@@ -769,7 +769,7 @@
         <v>4.3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007184640767961601</v>
+        <v>0.2873856307184641</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
@@ -795,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005849549121974371</v>
+        <v>0.2501186521120076</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
@@ -821,7 +821,7 @@
         <v>3.5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006815642458100559</v>
+        <v>0.3162011173184358</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
@@ -847,7 +847,7 @@
         <v>3.8</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009569934134056567</v>
+        <v>0.4194110809763658</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
@@ -873,7 +873,7 @@
         <v>3.4</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01036480686695279</v>
+        <v>0.5060085836909871</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
@@ -899,7 +899,7 @@
         <v>3.7</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0134001082837033</v>
+        <v>0.5416892257715213</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
@@ -925,7 +925,7 @@
         <v>3.4</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007648991083998123</v>
+        <v>0.3671202878147974</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
@@ -951,7 +951,7 @@
         <v>3.9</v>
       </c>
       <c r="C19" t="n">
-        <v>0.006166017832475198</v>
+        <v>0.2688685168906191</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
@@ -977,7 +977,7 @@
         <v>4.3</v>
       </c>
       <c r="C20" t="n">
-        <v>0.005232558139534884</v>
+        <v>0.2216701902748414</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
@@ -1003,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007914130086510733</v>
+        <v>0.3107978212111503</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
@@ -1029,7 +1029,7 @@
         <v>5.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008947561422808947</v>
+        <v>0.4323432343234324</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007302621833802399</v>
+        <v>0.3895719152718116</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
@@ -1081,7 +1081,7 @@
         <v>4.2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.007311355311355311</v>
+        <v>0.3592673992673993</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
@@ -1107,7 +1107,7 @@
         <v>4.1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006057657219316385</v>
+        <v>0.3151684709889308</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
@@ -1133,7 +1133,7 @@
         <v>3.9</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00736463176841158</v>
+        <v>0.3638818059097045</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
@@ -1159,7 +1159,7 @@
         <v>3.6</v>
       </c>
       <c r="C27" t="n">
-        <v>0.009439019720467163</v>
+        <v>0.4819069500287191</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
@@ -1185,7 +1185,7 @@
         <v>4.2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.009795673076923077</v>
+        <v>0.5358573717948718</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
@@ -1211,7 +1211,7 @@
         <v>3.5</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01152870647913304</v>
+        <v>0.5459995388517408</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
@@ -1237,7 +1237,7 @@
         <v>3.5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.009315730754927483</v>
+        <v>0.4408702119747118</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
@@ -1263,7 +1263,7 @@
         <v>3.6</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006580142764438676</v>
+        <v>0.299415963659961</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
@@ -1289,7 +1289,7 @@
         <v>3.9</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005197787287339526</v>
+        <v>0.242876526458616</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
@@ -1315,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.007925186241876684</v>
+        <v>0.3902361705500079</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
@@ -1341,7 +1341,7 @@
         <v>4.2</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01029472810294728</v>
+        <v>0.4271481942714819</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
@@ -1367,7 +1367,7 @@
         <v>4.4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.008207979071288424</v>
+        <v>0.407619359058208</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
@@ -1393,7 +1393,7 @@
         <v>3.9</v>
       </c>
       <c r="C36" t="n">
-        <v>0.008145017070395059</v>
+        <v>0.391968785563323</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
@@ -1419,7 +1419,7 @@
         <v>3.2</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0066260270341903</v>
+        <v>0.344288364696528</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>0.008253863860572181</v>
+        <v>0.3674778033541598</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
@@ -1471,7 +1471,7 @@
         <v>3.1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009149013878743608</v>
+        <v>0.4519722425127831</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
@@ -1497,7 +1497,7 @@
         <v>3.2</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0101179391682185</v>
+        <v>0.5818332298779226</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
@@ -1523,7 +1523,7 @@
         <v>2.9</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01217520415738679</v>
+        <v>0.5956446424152437</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
@@ -1549,7 +1549,7 @@
         <v>3.2</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00876974968933073</v>
+        <v>0.4706195632877685</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
@@ -1575,7 +1575,7 @@
         <v>3.1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.006870757722676271</v>
+        <v>0.3233134783210971</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>0.005866383380547686</v>
+        <v>0.285056657223796</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
@@ -1627,7 +1627,7 @@
         <v>4.9</v>
       </c>
       <c r="C45" t="n">
-        <v>0.008689558514365803</v>
+        <v>0.4639103013314646</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
@@ -1653,7 +1653,7 @@
         <v>4.8</v>
       </c>
       <c r="C46" t="n">
-        <v>0.009739368998628258</v>
+        <v>0.5394865765236135</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
@@ -1679,7 +1679,7 @@
         <v>4.4</v>
       </c>
       <c r="C47" t="n">
-        <v>0.008469665985003408</v>
+        <v>0.4981254260395365</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
@@ -1705,7 +1705,7 @@
         <v>4.1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.008411056469391217</v>
+        <v>0.4865185687637782</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
@@ -1731,7 +1731,7 @@
         <v>4.2</v>
       </c>
       <c r="C49" t="n">
-        <v>0.007080640629390278</v>
+        <v>0.397724079797696</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
@@ -1757,7 +1757,7 @@
         <v>4.1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.008268101761252446</v>
+        <v>0.4662426614481409</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
@@ -1783,7 +1783,7 @@
         <v>4.2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00906810035842294</v>
+        <v>0.5275985663082438</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
@@ -1809,7 +1809,7 @@
         <v>4.2</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01026173660157873</v>
+        <v>0.5938928126298296</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
@@ -1835,7 +1835,7 @@
         <v>3.8</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01245049504950495</v>
+        <v>0.6353960396039604</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
@@ -1861,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C54" t="n">
-        <v>0.008221859706362153</v>
+        <v>0.434094616639478</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
@@ -1887,7 +1887,7 @@
         <v>4.5</v>
       </c>
       <c r="C55" t="n">
-        <v>0.007195363302233531</v>
+        <v>0.3081707661860333</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
@@ -1917,7 +1917,7 @@
         <v>4.3</v>
       </c>
       <c r="C56" t="n">
-        <v>0.005459832005169072</v>
+        <v>0.2589920310144303</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
@@ -1947,7 +1947,7 @@
         <v>4.4</v>
       </c>
       <c r="C57" t="n">
-        <v>0.009038157200633022</v>
+        <v>0.3613504483910673</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
@@ -1977,7 +1977,7 @@
         <v>5.1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.009990393852065321</v>
+        <v>0.4651296829971182</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
@@ -2007,7 +2007,7 @@
         <v>5.3</v>
       </c>
       <c r="C59" t="n">
-        <v>0.008319999999999999</v>
+        <v>0.40864</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
@@ -2037,7 +2037,7 @@
         <v>4.3</v>
       </c>
       <c r="C60" t="n">
-        <v>0.009897610921501708</v>
+        <v>0.4258627227910504</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
@@ -2067,7 +2067,7 @@
         <v>3.7</v>
       </c>
       <c r="C61" t="n">
-        <v>0.008338709677419355</v>
+        <v>0.3635483870967742</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
@@ -2097,7 +2097,7 @@
         <v>3.7</v>
       </c>
       <c r="C62" t="n">
-        <v>0.008215477514698873</v>
+        <v>0.3963133640552995</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
@@ -2127,7 +2127,7 @@
         <v>4.3</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01087321578505458</v>
+        <v>0.4821578505457599</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
@@ -2157,7 +2157,7 @@
         <v>4.5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01019427198077308</v>
+        <v>0.4560384538353695</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
@@ -2187,7 +2187,7 @@
         <v>3.9</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0132761231701161</v>
+        <v>0.4729934376577486</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
@@ -2217,7 +2217,7 @@
         <v>3.8</v>
       </c>
       <c r="C66" t="n">
-        <v>0.009655300222386953</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
@@ -2247,7 +2247,7 @@
         <v>4.1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.007525491885681459</v>
+        <v>0.3040356168318253</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
@@ -2277,7 +2277,7 @@
         <v>4.4</v>
       </c>
       <c r="C68" t="n">
-        <v>0.004959303426083665</v>
+        <v>0.2018739352640545</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
@@ -2307,7 +2307,7 @@
         <v>5.1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01001166407465008</v>
+        <v>0.3967729393468118</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
@@ -2339,7 +2339,7 @@
         <v>5.3</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01172460804362645</v>
+        <v>0.4360372642581232</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
@@ -2371,7 +2371,7 @@
         <v>5.5</v>
       </c>
       <c r="C71" t="n">
-        <v>0.00904071773636991</v>
+        <v>0.3919944789510007</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
@@ -2403,7 +2403,7 @@
         <v>4.8</v>
       </c>
       <c r="C72" t="n">
-        <v>0.00920936784645184</v>
+        <v>0.3446029230498327</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
@@ -2435,7 +2435,7 @@
         <v>4.9</v>
       </c>
       <c r="C73" t="n">
-        <v>0.008353108685334598</v>
+        <v>0.3327005220692928</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
@@ -2467,7 +2467,7 @@
         <v>4.6</v>
       </c>
       <c r="C74" t="n">
-        <v>0.008528750401541921</v>
+        <v>0.3300674590427241</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
@@ -2499,7 +2499,7 @@
         <v>4.4</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01032928263426107</v>
+        <v>0.4204233633869071</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
@@ -2531,7 +2531,7 @@
         <v>4.2</v>
       </c>
       <c r="C76" t="n">
-        <v>0.009240099892971816</v>
+        <v>0.4443453442739921</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
@@ -2563,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0118058690744921</v>
+        <v>0.4862302483069977</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
@@ -2595,7 +2595,7 @@
         <v>4.2</v>
       </c>
       <c r="C78" t="n">
-        <v>0.009779996302458864</v>
+        <v>0.3963764096875578</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
@@ -2627,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="n">
-        <v>0.007162235485621269</v>
+        <v>0.2772653282691264</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
@@ -2659,7 +2659,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>0.005387755102040816</v>
+        <v>0.201530612244898</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
@@ -2691,7 +2691,7 @@
         <v>4.6</v>
       </c>
       <c r="C81" t="n">
-        <v>0.009308885754583921</v>
+        <v>0.3460860366713681</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
@@ -2725,7 +2725,7 @@
         <v>4.9</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0109443402126329</v>
+        <v>0.4411090264748802</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
@@ -2759,7 +2759,7 @@
         <v>4.9</v>
       </c>
       <c r="C83" t="n">
-        <v>0.008847002886737987</v>
+        <v>0.369162845984038</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
@@ -2793,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>0.009772472957851547</v>
+        <v>0.3757926146960089</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
@@ -2827,7 +2827,7 @@
         <v>3.9</v>
       </c>
       <c r="C85" t="n">
-        <v>0.007388049159485803</v>
+        <v>0.2825257804774686</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
@@ -2861,7 +2861,7 @@
         <v>3.8</v>
       </c>
       <c r="C86" t="n">
-        <v>0.008123076923076922</v>
+        <v>0.3390769230769231</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
@@ -2895,7 +2895,7 @@
         <v>4.2</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01030866640284923</v>
+        <v>0.3951325682627622</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
@@ -2929,7 +2929,7 @@
         <v>4.3</v>
       </c>
       <c r="C88" t="n">
-        <v>0.008656417112299464</v>
+        <v>0.3477606951871658</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
@@ -2963,7 +2963,7 @@
         <v>3.7</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01201845444059977</v>
+        <v>0.4814302191464821</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
@@ -2997,7 +2997,7 @@
         <v>4.1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01002083727978784</v>
+        <v>0.3396476605417693</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
@@ -3031,7 +3031,7 @@
         <v>3.6</v>
       </c>
       <c r="C91" t="n">
-        <v>0.007112413425679275</v>
+        <v>0.2607884922749067</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
@@ -3065,7 +3065,7 @@
         <v>3.4</v>
       </c>
       <c r="C92" t="n">
-        <v>0.00502627806975633</v>
+        <v>0.18786430960344</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
@@ -3099,7 +3099,7 @@
         <v>3.5</v>
       </c>
       <c r="C93" t="n">
-        <v>0.007658643326039387</v>
+        <v>0.3040116703136397</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>0.008575241908575242</v>
+        <v>0.3375041708375042</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
@@ -3167,7 +3167,7 @@
         <v>3.6</v>
       </c>
       <c r="C95" t="n">
-        <v>0.008854883081155434</v>
+        <v>0.3485213204951857</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
@@ -3201,7 +3201,7 @@
         <v>3.2</v>
       </c>
       <c r="C96" t="n">
-        <v>0.009056277056277056</v>
+        <v>0.3556709956709957</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
@@ -3235,7 +3235,7 @@
         <v>3.4</v>
       </c>
       <c r="C97" t="n">
-        <v>0.007353146365285336</v>
+        <v>0.2970559508860053</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
@@ -3269,7 +3269,7 @@
         <v>3</v>
       </c>
       <c r="C98" t="n">
-        <v>0.008699268130405854</v>
+        <v>0.3205256154357951</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
@@ -3303,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>0.00918975797965626</v>
+        <v>0.3639074009119607</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
@@ -3337,7 +3337,7 @@
         <v>2.8</v>
       </c>
       <c r="C100" t="n">
-        <v>0.008642594450016717</v>
+        <v>0.3652624540287529</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
@@ -3371,7 +3371,7 @@
         <v>2.7</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01223205964585275</v>
+        <v>0.4007455731593663</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
@@ -3405,7 +3405,7 @@
         <v>3.3</v>
       </c>
       <c r="C102" t="n">
-        <v>0.008614232209737827</v>
+        <v>0.3699723172121804</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
@@ -3439,7 +3439,7 @@
         <v>3.6</v>
       </c>
       <c r="C103" t="n">
-        <v>0.007255737254363061</v>
+        <v>0.3031469011955476</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
@@ -3473,7 +3473,7 @@
         <v>3.7</v>
       </c>
       <c r="C104" t="n">
-        <v>0.00554016620498615</v>
+        <v>0.2038141913488174</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
@@ -3507,7 +3507,7 @@
         <v>3.7</v>
       </c>
       <c r="C105" t="n">
-        <v>0.00873215785054576</v>
+        <v>0.3424013434089001</v>
       </c>
       <c r="D105" t="n">
         <v>8.300000000000001</v>
@@ -3545,7 +3545,7 @@
         <v>3.9</v>
       </c>
       <c r="C106" t="n">
-        <v>0.009965170278637771</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="D106" t="n">
         <v>8.4</v>
@@ -3583,7 +3583,7 @@
         <v>3.8</v>
       </c>
       <c r="C107" t="n">
-        <v>0.008554572271386431</v>
+        <v>0.3564405113077679</v>
       </c>
       <c r="D107" t="n">
         <v>8.4</v>
@@ -3621,7 +3621,7 @@
         <v>3.3</v>
       </c>
       <c r="C108" t="n">
-        <v>0.008905982905982907</v>
+        <v>0.3750427350427351</v>
       </c>
       <c r="D108" t="n">
         <v>8.5</v>
@@ -3659,7 +3659,7 @@
         <v>3.3</v>
       </c>
       <c r="C109" t="n">
-        <v>0.00769687082900786</v>
+        <v>0.3329378614859855</v>
       </c>
       <c r="D109" t="n">
         <v>8.5</v>
@@ -3697,7 +3697,7 @@
         <v>3.6</v>
       </c>
       <c r="C110" t="n">
-        <v>0.008842498302783436</v>
+        <v>0.3922267481330618</v>
       </c>
       <c r="D110" t="n">
         <v>8.5</v>
@@ -3735,7 +3735,7 @@
         <v>3.3</v>
       </c>
       <c r="C111" t="n">
-        <v>0.008793629278210776</v>
+        <v>0.3458149779735683</v>
       </c>
       <c r="D111" t="n">
         <v>8.6</v>
@@ -3773,7 +3773,7 @@
         <v>3.8</v>
       </c>
       <c r="C112" t="n">
-        <v>0.009204647006255586</v>
+        <v>0.2403932082216265</v>
       </c>
       <c r="D112" t="n">
         <v>8.6</v>
@@ -3811,7 +3811,7 @@
         <v>3.1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01115209372965936</v>
+        <v>0.2942069863310913</v>
       </c>
       <c r="D113" t="n">
         <v>8.6</v>
@@ -3849,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>0.009230214530376781</v>
+        <v>0.3441499909861186</v>
       </c>
       <c r="D114" t="n">
         <v>8.699999999999999</v>
@@ -3887,7 +3887,7 @@
         <v>2.8</v>
       </c>
       <c r="C115" t="n">
-        <v>0.00872540633019675</v>
+        <v>0.313601368691189</v>
       </c>
       <c r="D115" t="n">
         <v>8.699999999999999</v>
@@ -3925,7 +3925,7 @@
         <v>2.6</v>
       </c>
       <c r="C116" t="n">
-        <v>0.00593329432416618</v>
+        <v>0.2351082504388531</v>
       </c>
       <c r="D116" t="n">
         <v>8.699999999999999</v>
@@ -3963,7 +3963,7 @@
         <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>0.008187418936446174</v>
+        <v>0.2929636835278859</v>
       </c>
       <c r="D117" t="n">
         <v>8.800000000000001</v>
@@ -4001,7 +4001,7 @@
         <v>3.6</v>
       </c>
       <c r="C118" t="n">
-        <v>0.009933907470458643</v>
+        <v>0.3777288203484879</v>
       </c>
       <c r="D118" t="n">
         <v>8.800000000000001</v>
@@ -4039,7 +4039,7 @@
         <v>3.4</v>
       </c>
       <c r="C119" t="n">
-        <v>0.009050259345376498</v>
+        <v>0.3621892326954033</v>
       </c>
       <c r="D119" t="n">
         <v>8.9</v>
@@ -4077,7 +4077,7 @@
         <v>3.9</v>
       </c>
       <c r="C120" t="n">
-        <v>0.009644959179798747</v>
+        <v>0.37250806910955</v>
       </c>
       <c r="D120" t="n">
         <v>8.9</v>
@@ -4115,7 +4115,7 @@
         <v>4.1</v>
       </c>
       <c r="C121" t="n">
-        <v>0.008038841133397007</v>
+        <v>0.3155046163642152</v>
       </c>
       <c r="D121" t="n">
         <v>8.9</v>
@@ -4153,7 +4153,7 @@
         <v>3.6</v>
       </c>
       <c r="C122" t="n">
-        <v>0.008685245341083945</v>
+        <v>0.3682680800136776</v>
       </c>
       <c r="D122" t="n">
         <v>9</v>
@@ -4191,7 +4191,7 @@
         <v>3.7</v>
       </c>
       <c r="C123" t="n">
-        <v>0.009536373916321146</v>
+        <v>0.4106671692423671</v>
       </c>
       <c r="D123" t="n">
         <v>9</v>
@@ -4229,7 +4229,7 @@
         <v>3.4</v>
       </c>
       <c r="C124" t="n">
-        <v>0.009553158705701078</v>
+        <v>0.3919491525423729</v>
       </c>
       <c r="D124" t="n">
         <v>9</v>
@@ -4267,7 +4267,7 @@
         <v>3.2</v>
       </c>
       <c r="C125" t="n">
-        <v>0.01009118541033435</v>
+        <v>0.4125633232016211</v>
       </c>
       <c r="D125" t="n">
         <v>9.1</v>
@@ -4305,7 +4305,7 @@
         <v>3.2</v>
       </c>
       <c r="C126" t="n">
-        <v>0.009100817438692099</v>
+        <v>0.3594913714804723</v>
       </c>
       <c r="D126" t="n">
         <v>9.1</v>
@@ -4343,7 +4343,7 @@
         <v>3.6</v>
       </c>
       <c r="C127" t="n">
-        <v>0.008804044630404463</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="D127" t="n">
         <v>9.1</v>
@@ -4381,7 +4381,7 @@
         <v>3.7</v>
       </c>
       <c r="C128" t="n">
-        <v>0.00628664088811276</v>
+        <v>0.2438568042908819</v>
       </c>
       <c r="D128" t="n">
         <v>9.199999999999999</v>
@@ -4419,7 +4419,7 @@
         <v>5.1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.009375</v>
+        <v>0.3141741071428572</v>
       </c>
       <c r="D129" t="n">
         <v>9.199999999999999</v>
@@ -4457,7 +4457,7 @@
         <v>4.9</v>
       </c>
       <c r="C130" t="n">
-        <v>0.009652804273178177</v>
+        <v>0.3017932086989699</v>
       </c>
       <c r="D130" t="n">
         <v>9.300000000000001</v>
@@ -4495,7 +4495,7 @@
         <v>4.5</v>
       </c>
       <c r="C131" t="n">
-        <v>0.008712837257260698</v>
+        <v>0.3223921636019935</v>
       </c>
       <c r="D131" t="n">
         <v>9.300000000000001</v>
@@ -4533,7 +4533,7 @@
         <v>3.7</v>
       </c>
       <c r="C132" t="n">
-        <v>0.008853187489318065</v>
+        <v>0.3192616646727055</v>
       </c>
       <c r="D132" t="n">
         <v>9.300000000000001</v>
@@ -4571,7 +4571,7 @@
         <v>3.1</v>
       </c>
       <c r="C133" t="n">
-        <v>0.008983572895277207</v>
+        <v>0.2835386721423682</v>
       </c>
       <c r="D133" t="n">
         <v>9.4</v>
@@ -4609,7 +4609,7 @@
         <v>3.3</v>
       </c>
       <c r="C134" t="n">
-        <v>0.008608179419525066</v>
+        <v>0.3266820580474934</v>
       </c>
       <c r="D134" t="n">
         <v>9.4</v>
@@ -4647,7 +4647,7 @@
         <v>3.7</v>
       </c>
       <c r="C135" t="n">
-        <v>0.009352132786007496</v>
+        <v>0.329109405675531</v>
       </c>
       <c r="D135" t="n">
         <v>9.5</v>
@@ -4685,7 +4685,7 @@
         <v>3.5</v>
       </c>
       <c r="C136" t="n">
-        <v>0.008871246116672419</v>
+        <v>0.3123921297894374</v>
       </c>
       <c r="D136" t="n">
         <v>9.5</v>
@@ -4723,7 +4723,7 @@
         <v>3.7</v>
       </c>
       <c r="C137" t="n">
-        <v>0.01039484286865431</v>
+        <v>0.3450846091861402</v>
       </c>
       <c r="D137" t="n">
         <v>9.5</v>
@@ -4761,7 +4761,7 @@
         <v>3.6</v>
       </c>
       <c r="C138" t="n">
-        <v>0.01022906793048973</v>
+        <v>0.3708530805687204</v>
       </c>
       <c r="D138" t="n">
         <v>9.699999999999999</v>
@@ -4799,7 +4799,7 @@
         <v>2.7</v>
       </c>
       <c r="C139" t="n">
-        <v>0.007962962962962963</v>
+        <v>0.3075617283950617</v>
       </c>
       <c r="D139" t="n">
         <v>9.699999999999999</v>
@@ -4837,7 +4837,7 @@
         <v>3.6</v>
       </c>
       <c r="C140" t="n">
-        <v>0.006228332337118948</v>
+        <v>0.2243873281530185</v>
       </c>
       <c r="D140" t="n">
         <v>9.699999999999999</v>
@@ -4875,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="C141" t="n">
-        <v>0.009338168631006347</v>
+        <v>0.3060743427017226</v>
       </c>
       <c r="D141" t="n">
         <v>9.800000000000001</v>
@@ -4913,7 +4913,7 @@
         <v>4.3</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01033663366336634</v>
+        <v>0.2851485148514851</v>
       </c>
       <c r="D142" t="n">
         <v>9.800000000000001</v>
@@ -4951,7 +4951,7 @@
         <v>4.6</v>
       </c>
       <c r="C143" t="n">
-        <v>0.008906675749318801</v>
+        <v>0.2970027247956403</v>
       </c>
       <c r="D143" t="n">
         <v>9.800000000000001</v>
@@ -4989,7 +4989,7 @@
         <v>4.1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.009932024169184291</v>
+        <v>0.2873867069486405</v>
       </c>
       <c r="D144" t="n">
         <v>9.9</v>
@@ -5027,7 +5027,7 @@
         <v>3.9</v>
       </c>
       <c r="C145" t="n">
-        <v>0.008250773993808049</v>
+        <v>0.2608359133126935</v>
       </c>
       <c r="D145" t="n">
         <v>9.9</v>
@@ -5065,7 +5065,7 @@
         <v>3.9</v>
       </c>
       <c r="C146" t="n">
-        <v>0.008859082629574433</v>
+        <v>0.2962410995197881</v>
       </c>
       <c r="D146" t="n">
         <v>9.9</v>
@@ -5103,7 +5103,7 @@
         <v>3.5</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01013333333333333</v>
+        <v>0.3173333333333334</v>
       </c>
       <c r="D147" t="n">
         <v>10</v>
@@ -5141,7 +5141,7 @@
         <v>3.5</v>
       </c>
       <c r="C148" t="n">
-        <v>0.008437045417811541</v>
+        <v>0.2862453531598513</v>
       </c>
       <c r="D148" t="n">
         <v>10</v>
@@ -5179,7 +5179,7 @@
         <v>3.8</v>
       </c>
       <c r="C149" t="n">
-        <v>0.01080968280467446</v>
+        <v>0.3770868113522537</v>
       </c>
       <c r="D149" t="n">
         <v>10.1</v>
@@ -5217,7 +5217,7 @@
         <v>3.4</v>
       </c>
       <c r="C150" t="n">
-        <v>0.009226401703335699</v>
+        <v>0.2936479772888573</v>
       </c>
       <c r="D150" t="n">
         <v>10.1</v>
@@ -5255,7 +5255,7 @@
         <v>3.8</v>
       </c>
       <c r="C151" t="n">
-        <v>0.007571801566579635</v>
+        <v>0.2825645488830867</v>
       </c>
       <c r="D151" t="n">
         <v>10.1</v>
@@ -5293,7 +5293,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="n">
-        <v>0.006085834896810506</v>
+        <v>0.2230300187617261</v>
       </c>
       <c r="D152" t="n">
         <v>10.2</v>
@@ -5331,7 +5331,7 @@
         <v>4.3</v>
       </c>
       <c r="C153" t="n">
-        <v>0.008697838109602816</v>
+        <v>0.2760180995475113</v>
       </c>
       <c r="D153" t="n">
         <v>10.3</v>
@@ -5369,7 +5369,7 @@
         <v>5.1</v>
       </c>
       <c r="C154" t="n">
-        <v>0.009774716067771364</v>
+        <v>0.2995717743436976</v>
       </c>
       <c r="D154" t="n">
         <v>10.3</v>
@@ -5407,7 +5407,7 @@
         <v>4.2</v>
       </c>
       <c r="C155" t="n">
-        <v>0.008706426565339502</v>
+        <v>0.2800264331736329</v>
       </c>
       <c r="D155" t="n">
         <v>10.4</v>
@@ -5445,7 +5445,7 @@
         <v>3.9</v>
       </c>
       <c r="C156" t="n">
-        <v>0.00891401962414768</v>
+        <v>0.2529519374688176</v>
       </c>
       <c r="D156" t="n">
         <v>10.4</v>
@@ -5483,7 +5483,7 @@
         <v>3.6</v>
       </c>
       <c r="C157" t="n">
-        <v>0.008688656476267096</v>
+        <v>0.2960579243765085</v>
       </c>
       <c r="D157" t="n">
         <v>10.5</v>
@@ -5521,7 +5521,7 @@
         <v>3.5</v>
       </c>
       <c r="C158" t="n">
-        <v>0.009625</v>
+        <v>0.3</v>
       </c>
       <c r="D158" t="n">
         <v>10.5</v>
@@ -5559,7 +5559,7 @@
         <v>3.4</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01009852216748768</v>
+        <v>0.3317544524441076</v>
       </c>
       <c r="D159" t="n">
         <v>10.6</v>
@@ -5597,7 +5597,7 @@
         <v>3.8</v>
       </c>
       <c r="C160" t="n">
-        <v>0.009638554216867471</v>
+        <v>0.3369786839666358</v>
       </c>
       <c r="D160" t="n">
         <v>10.6</v>
@@ -5635,7 +5635,7 @@
         <v>3.6</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0123236124176858</v>
+        <v>0.3718250235183443</v>
       </c>
       <c r="D161" t="n">
         <v>10.7</v>
@@ -5673,7 +5673,7 @@
         <v>3.3</v>
       </c>
       <c r="C162" t="n">
-        <v>0.008259539526646272</v>
+        <v>0.2669457414265013</v>
       </c>
       <c r="D162" t="n">
         <v>10.7</v>
@@ -5711,7 +5711,7 @@
         <v>3.2</v>
       </c>
       <c r="C163" t="n">
-        <v>0.007657792402034101</v>
+        <v>0.2639844451091833</v>
       </c>
       <c r="D163" t="n">
         <v>10.8</v>
@@ -5749,7 +5749,7 @@
         <v>2.8</v>
       </c>
       <c r="C164" t="n">
-        <v>0.005927894615206841</v>
+        <v>0.1862722440489947</v>
       </c>
       <c r="D164" t="n">
         <v>10.8</v>
@@ -5787,7 +5787,7 @@
         <v>3.4</v>
       </c>
       <c r="C165" t="n">
-        <v>0.008664748688441361</v>
+        <v>0.2780504315451007</v>
       </c>
       <c r="D165" t="n">
         <v>10.9</v>
@@ -5825,7 +5825,7 @@
         <v>4.2</v>
       </c>
       <c r="C166" t="n">
-        <v>0.009875598086124402</v>
+        <v>0.2784688995215311</v>
       </c>
       <c r="D166" t="n">
         <v>11</v>
@@ -5863,7 +5863,7 @@
         <v>5.1</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0106570841889117</v>
+        <v>0.3217659137577002</v>
       </c>
       <c r="D167" t="n">
         <v>11</v>
@@ -5901,7 +5901,7 @@
         <v>4.4</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01035433070866142</v>
+        <v>0.3072834645669291</v>
       </c>
       <c r="D168" t="n">
         <v>11.1</v>
@@ -5939,7 +5939,7 @@
         <v>4.2</v>
       </c>
       <c r="C169" t="n">
-        <v>0.00803951367781155</v>
+        <v>0.2800911854103343</v>
       </c>
       <c r="D169" t="n">
         <v>11.1</v>
@@ -5977,7 +5977,7 @@
         <v>4.1</v>
       </c>
       <c r="C170" t="n">
-        <v>0.009639869043288469</v>
+        <v>0.2935612950163696</v>
       </c>
       <c r="D170" t="n">
         <v>11.2</v>
@@ -6015,7 +6015,7 @@
         <v>3.4</v>
       </c>
       <c r="C171" t="n">
-        <v>0.00904892234006158</v>
+        <v>0.320390010263428</v>
       </c>
       <c r="D171" t="n">
         <v>11.2</v>
@@ -6053,7 +6053,7 @@
         <v>3.1</v>
       </c>
       <c r="C172" t="n">
-        <v>0.009124343257443083</v>
+        <v>0.302276707530648</v>
       </c>
       <c r="D172" t="n">
         <v>11.3</v>
@@ -6091,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01251193887297039</v>
+        <v>0.3798949379178606</v>
       </c>
       <c r="D173" t="n">
         <v>11.3</v>
@@ -6129,7 +6129,7 @@
         <v>3</v>
       </c>
       <c r="C174" t="n">
-        <v>0.009112833763996554</v>
+        <v>0.3078380706287683</v>
       </c>
       <c r="D174" t="n">
         <v>11.3</v>
@@ -6167,7 +6167,7 @@
         <v>2.7</v>
       </c>
       <c r="C175" t="n">
-        <v>0.008813728757080972</v>
+        <v>0.2924025324891703</v>
       </c>
       <c r="D175" t="n">
         <v>11.4</v>
@@ -6205,7 +6205,7 @@
         <v>3</v>
       </c>
       <c r="C176" t="n">
-        <v>0.006550703182827535</v>
+        <v>0.2110782136688872</v>
       </c>
       <c r="D176" t="n">
         <v>11.5</v>
@@ -6243,7 +6243,7 @@
         <v>3.3</v>
       </c>
       <c r="C177" t="n">
-        <v>0.009583789704271631</v>
+        <v>0.280759401241329</v>
       </c>
       <c r="D177" t="n">
         <v>11.5</v>
@@ -6281,7 +6281,7 @@
         <v>5</v>
       </c>
       <c r="C178" t="n">
-        <v>0.01039314908524718</v>
+        <v>0.3065395095367847</v>
       </c>
       <c r="D178" t="n">
         <v>11.6</v>
@@ -6319,7 +6319,7 @@
         <v>4.3</v>
       </c>
       <c r="C179" t="n">
-        <v>0.009994353472614343</v>
+        <v>0.3011481272350838</v>
       </c>
       <c r="D179" t="n">
         <v>11.6</v>
@@ -6357,7 +6357,7 @@
         <v>5.1</v>
       </c>
       <c r="C180" t="n">
-        <v>0.01105371900826446</v>
+        <v>0.3340909090909091</v>
       </c>
       <c r="D180" t="n">
         <v>11.7</v>
@@ -6395,7 +6395,7 @@
         <v>5.3</v>
       </c>
       <c r="C181" t="n">
-        <v>0.008540076335877863</v>
+        <v>0.2701972010178117</v>
       </c>
       <c r="D181" t="n">
         <v>11.7</v>
@@ -6433,7 +6433,7 @@
         <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01009624457444801</v>
+        <v>0.301943762974146</v>
       </c>
       <c r="D182" t="n">
         <v>11.7</v>
@@ -6471,7 +6471,7 @@
         <v>4.6</v>
       </c>
       <c r="C183" t="n">
-        <v>0.01009380863039399</v>
+        <v>0.3373358348968105</v>
       </c>
       <c r="D183" t="n">
         <v>11.8</v>
@@ -6509,7 +6509,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="n">
-        <v>0.01076550191880428</v>
+        <v>0.312462128862856</v>
       </c>
       <c r="D184" t="n">
         <v>11.9</v>
@@ -6547,7 +6547,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="n">
-        <v>0.01305406721870433</v>
+        <v>0.3979542133463225</v>
       </c>
       <c r="D185" t="n">
         <v>11.9</v>
@@ -6585,7 +6585,7 @@
         <v>4.5</v>
       </c>
       <c r="C186" t="n">
-        <v>0.009686712279438242</v>
+        <v>0.3093266114512063</v>
       </c>
       <c r="D186" t="n">
         <v>11.9</v>
@@ -6623,7 +6623,7 @@
         <v>3.5</v>
       </c>
       <c r="C187" t="n">
-        <v>0.01079079079079079</v>
+        <v>0.2998998998998999</v>
       </c>
       <c r="D187" t="n">
         <v>12</v>
@@ -6661,7 +6661,7 @@
         <v>3.6</v>
       </c>
       <c r="C188" t="n">
-        <v>0.007103970256274067</v>
+        <v>0.219492763245253</v>
       </c>
       <c r="D188" t="n">
         <v>12</v>
@@ -6699,7 +6699,7 @@
         <v>4</v>
       </c>
       <c r="C189" t="n">
-        <v>0.008998474834773767</v>
+        <v>0.2586002372479241</v>
       </c>
       <c r="D189" t="n">
         <v>12.1</v>
@@ -6737,7 +6737,7 @@
         <v>5</v>
       </c>
       <c r="C190" t="n">
-        <v>0.01183155080213904</v>
+        <v>0.2776292335115865</v>
       </c>
       <c r="D190" t="n">
         <v>12.2</v>
@@ -6775,7 +6775,7 @@
         <v>4.6</v>
       </c>
       <c r="C191" t="n">
-        <v>0.009285083848190644</v>
+        <v>0.2515445719329215</v>
       </c>
       <c r="D191" t="n">
         <v>12.2</v>
@@ -6813,7 +6813,7 @@
         <v>4.4</v>
       </c>
       <c r="C192" t="n">
-        <v>0.009937888198757763</v>
+        <v>0.2842085450781103</v>
       </c>
       <c r="D192" t="n">
         <v>12.3</v>
@@ -6851,7 +6851,7 @@
         <v>4.2</v>
       </c>
       <c r="C193" t="n">
-        <v>0.008833333333333334</v>
+        <v>0.2323333333333333</v>
       </c>
       <c r="D193" t="n">
         <v>12.3</v>
@@ -6889,7 +6889,7 @@
         <v>4.7</v>
       </c>
       <c r="C194" t="n">
-        <v>0.009525521207764199</v>
+        <v>0.2931344356578001</v>
       </c>
       <c r="D194" t="n">
         <v>12.3</v>
@@ -6927,7 +6927,7 @@
         <v>3.9</v>
       </c>
       <c r="C195" t="n">
-        <v>0.01039011958439522</v>
+        <v>0.3201333071946677</v>
       </c>
       <c r="D195" t="n">
         <v>12.4</v>
@@ -6965,7 +6965,7 @@
         <v>3.8</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01147931557288282</v>
+        <v>0.3227203811999134</v>
       </c>
       <c r="D196" t="n">
         <v>12.4</v>
@@ -7003,7 +7003,7 @@
         <v>3.7</v>
       </c>
       <c r="C197" t="n">
-        <v>0.01291666666666667</v>
+        <v>0.3593137254901961</v>
       </c>
       <c r="D197" t="n">
         <v>12.5</v>
@@ -7041,7 +7041,7 @@
         <v>3.6</v>
       </c>
       <c r="C198" t="n">
-        <v>0.01080691642651297</v>
+        <v>0.3359407163441746</v>
       </c>
       <c r="D198" t="n">
         <v>12.5</v>
@@ -7079,7 +7079,7 @@
         <v>3.4</v>
       </c>
       <c r="C199" t="n">
-        <v>0.009625962596259627</v>
+        <v>0.2893289328932893</v>
       </c>
       <c r="D199" t="n">
         <v>12.6</v>
@@ -7117,7 +7117,7 @@
         <v>3.8</v>
       </c>
       <c r="C200" t="n">
-        <v>0.007368568232662193</v>
+        <v>0.2300055928411633</v>
       </c>
       <c r="D200" t="n">
         <v>12.6</v>
@@ -7155,7 +7155,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="n">
-        <v>0.01102015113350126</v>
+        <v>0.2844248530646515</v>
       </c>
       <c r="D201" t="n">
         <v>12.7</v>
@@ -7193,7 +7193,7 @@
         <v>5.6</v>
       </c>
       <c r="C202" t="n">
-        <v>0.01146168705730844</v>
+        <v>0.2801030264005152</v>
       </c>
       <c r="D202" t="n">
         <v>12.7</v>
@@ -7231,7 +7231,7 @@
         <v>4.7</v>
       </c>
       <c r="C203" t="n">
-        <v>0.01051893408134642</v>
+        <v>0.2975355640152274</v>
       </c>
       <c r="D203" t="n">
         <v>12.7</v>
@@ -7269,7 +7269,7 @@
         <v>4.3</v>
       </c>
       <c r="C204" t="n">
-        <v>0.01149650959860384</v>
+        <v>0.318935427574171</v>
       </c>
       <c r="D204" t="n">
         <v>12.8</v>
@@ -7307,7 +7307,7 @@
         <v>4.4</v>
       </c>
       <c r="C205" t="n">
-        <v>0.01036479444122756</v>
+        <v>0.2904844624589847</v>
       </c>
       <c r="D205" t="n">
         <v>12.8</v>
@@ -7345,7 +7345,7 @@
         <v>4.1</v>
       </c>
       <c r="C206" t="n">
-        <v>0.01071357185688587</v>
+        <v>0.3096142314611233</v>
       </c>
       <c r="D206" t="n">
         <v>12.8</v>
@@ -7383,7 +7383,7 @@
         <v>3.9</v>
       </c>
       <c r="C207" t="n">
-        <v>0.01165496049165935</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="D207" t="n">
         <v>12.9</v>
@@ -7421,7 +7421,7 @@
         <v>4</v>
       </c>
       <c r="C208" t="n">
-        <v>0.01159991245349092</v>
+        <v>0.323265484788794</v>
       </c>
       <c r="D208" t="n">
         <v>12.9</v>
@@ -7459,7 +7459,7 @@
         <v>4</v>
       </c>
       <c r="C209" t="n">
-        <v>0.01447189790931306</v>
+        <v>0.3956014118924789</v>
       </c>
       <c r="D209" t="n">
         <v>12.9</v>
@@ -7497,7 +7497,7 @@
         <v>4.1</v>
       </c>
       <c r="C210" t="n">
-        <v>0.01195821293620805</v>
+        <v>0.3305178928650812</v>
       </c>
       <c r="D210" t="n">
         <v>13</v>
@@ -7535,7 +7535,7 @@
         <v>3.7</v>
       </c>
       <c r="C211" t="n">
-        <v>0.01006800151114469</v>
+        <v>0.3094068757083491</v>
       </c>
       <c r="D211" t="n">
         <v>13</v>
@@ -7573,7 +7573,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="n">
-        <v>0.009061433447098977</v>
+        <v>0.258703071672355</v>
       </c>
       <c r="D212" t="n">
         <v>13</v>
@@ -7611,7 +7611,7 @@
         <v>4.2</v>
       </c>
       <c r="C213" t="n">
-        <v>0.01124171831587946</v>
+        <v>0.2780508655695662</v>
       </c>
       <c r="D213" t="n">
         <v>13.1</v>
@@ -7649,7 +7649,7 @@
         <v>5.3</v>
       </c>
       <c r="C214" t="n">
-        <v>0.01258479532163743</v>
+        <v>0.3256140350877193</v>
       </c>
       <c r="D214" t="n">
         <v>13.2</v>
@@ -7687,7 +7687,7 @@
         <v>5</v>
       </c>
       <c r="C215" t="n">
-        <v>0.01138297872340426</v>
+        <v>0.3348936170212766</v>
       </c>
       <c r="D215" t="n">
         <v>13.3</v>
@@ -7725,7 +7725,7 @@
         <v>5.1</v>
       </c>
       <c r="C216" t="n">
-        <v>0.01312835529526598</v>
+        <v>0.3250366032210835</v>
       </c>
       <c r="D216" t="n">
         <v>13.3</v>
@@ -7763,7 +7763,7 @@
         <v>3.7</v>
       </c>
       <c r="C217" t="n">
-        <v>0.009654307719863872</v>
+        <v>0.262224610424503</v>
       </c>
       <c r="D217" t="n">
         <v>13.4</v>
@@ -7801,7 +7801,7 @@
         <v>3.8</v>
       </c>
       <c r="C218" t="n">
-        <v>0.01192240627724499</v>
+        <v>0.3193112467306016</v>
       </c>
       <c r="D218" t="n">
         <v>13.5</v>
@@ -7839,7 +7839,7 @@
         <v>3.7</v>
       </c>
       <c r="C219" t="n">
-        <v>0.01392501912777353</v>
+        <v>0.3325682223922469</v>
       </c>
       <c r="D219" t="n">
         <v>13.5</v>
@@ -7877,7 +7877,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="n">
-        <v>0.013675</v>
+        <v>0.38925</v>
       </c>
       <c r="D220" t="n">
         <v>13.6</v>
@@ -7915,7 +7915,7 @@
         <v>4.2</v>
       </c>
       <c r="C221" t="n">
-        <v>0.01482084690553746</v>
+        <v>0.4144951140065147</v>
       </c>
       <c r="D221" t="n">
         <v>13.6</v>
@@ -7953,7 +7953,7 @@
         <v>4.2</v>
       </c>
       <c r="C222" t="n">
-        <v>0.01525471432592176</v>
+        <v>0.3793976920911906</v>
       </c>
       <c r="D222" t="n">
         <v>13.7</v>
@@ -7991,7 +7991,7 @@
         <v>4.2</v>
       </c>
       <c r="C223" t="n">
-        <v>0.01077474606652061</v>
+        <v>0.2989444333798048</v>
       </c>
       <c r="D223" t="n">
         <v>13.7</v>
@@ -8029,7 +8029,7 @@
         <v>4.5</v>
       </c>
       <c r="C224" t="n">
-        <v>0.009446598519562919</v>
+        <v>0.2322876277758195</v>
       </c>
       <c r="D224" t="n">
         <v>13.8</v>
@@ -8067,7 +8067,7 @@
         <v>4.6</v>
       </c>
       <c r="C225" t="n">
-        <v>0.01141211604095563</v>
+        <v>0.2694112627986348</v>
       </c>
       <c r="D225" t="n">
         <v>13.9</v>
@@ -8105,7 +8105,7 @@
         <v>5.6</v>
       </c>
       <c r="C226" t="n">
-        <v>0.01375255623721881</v>
+        <v>0.3343558282208589</v>
       </c>
       <c r="D226" t="n">
         <v>13.9</v>
@@ -8143,7 +8143,7 @@
         <v>5</v>
       </c>
       <c r="C227" t="n">
-        <v>0.01176983435047951</v>
+        <v>0.3029642545771578</v>
       </c>
       <c r="D227" t="n">
         <v>14</v>
@@ -8181,7 +8181,7 @@
         <v>5</v>
       </c>
       <c r="C228" t="n">
-        <v>0.01297362110311751</v>
+        <v>0.3561151079136691</v>
       </c>
       <c r="D228" t="n">
         <v>14</v>
@@ -8219,7 +8219,7 @@
         <v>4.9</v>
       </c>
       <c r="C229" t="n">
-        <v>0.01073479897009309</v>
+        <v>0.3079817785700139</v>
       </c>
       <c r="D229" t="n">
         <v>14.1</v>
@@ -8257,7 +8257,7 @@
         <v>4.4</v>
       </c>
       <c r="C230" t="n">
-        <v>0.0131547188027999</v>
+        <v>0.3362297851798214</v>
       </c>
       <c r="D230" t="n">
         <v>14.1</v>
@@ -8295,7 +8295,7 @@
         <v>4.3</v>
       </c>
       <c r="C231" t="n">
-        <v>0.01351351351351351</v>
+        <v>0.3709397470865361</v>
       </c>
       <c r="D231" t="n">
         <v>14.2</v>
@@ -8333,7 +8333,7 @@
         <v>4.6</v>
       </c>
       <c r="C232" t="n">
-        <v>0.01402738310514079</v>
+        <v>0.3422888142598812</v>
       </c>
       <c r="D232" t="n">
         <v>14.2</v>
@@ -8371,7 +8371,7 @@
         <v>5.1</v>
       </c>
       <c r="C233" t="n">
-        <v>0.01820615796519411</v>
+        <v>0.4200133868808568</v>
       </c>
       <c r="D233" t="n">
         <v>14.3</v>
@@ -8409,7 +8409,7 @@
         <v>4.5</v>
       </c>
       <c r="C234" t="n">
-        <v>0.01225090579710145</v>
+        <v>0.3684329710144927</v>
       </c>
       <c r="D234" t="n">
         <v>14.3</v>
@@ -8447,7 +8447,7 @@
         <v>3.9</v>
       </c>
       <c r="C235" t="n">
-        <v>0.01180449487235435</v>
+        <v>0.3305694959633428</v>
       </c>
       <c r="D235" t="n">
         <v>14.4</v>
@@ -8485,7 +8485,7 @@
         <v>3.6</v>
       </c>
       <c r="C236" t="n">
-        <v>0.009597411933860532</v>
+        <v>0.2386772106398275</v>
       </c>
       <c r="D236" t="n">
         <v>14.4</v>
@@ -8523,7 +8523,7 @@
         <v>5</v>
       </c>
       <c r="C237" t="n">
-        <v>0.01310140636565507</v>
+        <v>0.385393535652603</v>
       </c>
       <c r="D237" t="n">
         <v>14.5</v>
@@ -8561,7 +8561,7 @@
         <v>5.6</v>
       </c>
       <c r="C238" t="n">
-        <v>0.01440195280716029</v>
+        <v>0.3303498779495525</v>
       </c>
       <c r="D238" t="n">
         <v>14.6</v>
@@ -8599,7 +8599,7 @@
         <v>5.5</v>
       </c>
       <c r="C239" t="n">
-        <v>0.01382428940568475</v>
+        <v>0.3501291989664083</v>
       </c>
       <c r="D239" t="n">
         <v>14.6</v>
@@ -8637,7 +8637,7 @@
         <v>4.9</v>
       </c>
       <c r="C240" t="n">
-        <v>0.01365350766909731</v>
+        <v>0.3744028161931104</v>
       </c>
       <c r="D240" t="n">
         <v>14.7</v>
@@ -8675,7 +8675,7 @@
         <v>4.2</v>
       </c>
       <c r="C241" t="n">
-        <v>0.01162691652470187</v>
+        <v>0.3175042589437819</v>
       </c>
       <c r="D241" t="n">
         <v>14.7</v>
@@ -8713,7 +8713,7 @@
         <v>3.8</v>
       </c>
       <c r="C242" t="n">
-        <v>0.01487917458593538</v>
+        <v>0.3562313331523215</v>
       </c>
       <c r="D242" t="n">
         <v>14.8</v>
@@ -8751,7 +8751,7 @@
         <v>4.2</v>
       </c>
       <c r="C243" t="n">
-        <v>0.01383219954648526</v>
+        <v>0.3698664651045603</v>
       </c>
       <c r="D243" t="n">
         <v>14.9</v>
@@ -8789,7 +8789,7 @@
         <v>3.5</v>
       </c>
       <c r="C244" t="n">
-        <v>0.01409691629955947</v>
+        <v>0.353200310961389</v>
       </c>
       <c r="D244" t="n">
         <v>14.9</v>
@@ -8827,7 +8827,7 @@
         <v>3.4</v>
       </c>
       <c r="C245" t="n">
-        <v>0.01712328767123288</v>
+        <v>0.4209215442092155</v>
       </c>
       <c r="D245" t="n">
         <v>15</v>
@@ -8865,7 +8865,7 @@
         <v>3.3</v>
       </c>
       <c r="C246" t="n">
-        <v>0.01350293542074364</v>
+        <v>0.37353228962818</v>
       </c>
       <c r="D246" t="n">
         <v>15.1</v>
@@ -8903,7 +8903,7 @@
         <v>2.9</v>
       </c>
       <c r="C247" t="n">
-        <v>0.01320481927710843</v>
+        <v>0.3568674698795181</v>
       </c>
       <c r="D247" t="n">
         <v>15.1</v>
@@ -8941,7 +8941,7 @@
         <v>3.5</v>
       </c>
       <c r="C248" t="n">
-        <v>0.01098265895953757</v>
+        <v>0.2698823998405421</v>
       </c>
       <c r="D248" t="n">
         <v>15.2</v>
@@ -8979,7 +8979,7 @@
         <v>4.8</v>
       </c>
       <c r="C249" t="n">
-        <v>0.01431529899042195</v>
+        <v>0.3515402536888428</v>
       </c>
       <c r="D249" t="n">
         <v>15.3</v>
@@ -9017,7 +9017,7 @@
         <v>4.4</v>
       </c>
       <c r="C250" t="n">
-        <v>0.01415770609318996</v>
+        <v>0.3123399897593446</v>
       </c>
       <c r="D250" t="n">
         <v>15.4</v>
@@ -9055,7 +9055,7 @@
         <v>5.4</v>
       </c>
       <c r="C251" t="n">
-        <v>0.01368897835933568</v>
+        <v>0.2689984901862104</v>
       </c>
       <c r="D251" t="n">
         <v>15.5</v>
@@ -9093,7 +9093,7 @@
         <v>5.8</v>
       </c>
       <c r="C252" t="n">
-        <v>0.01684901531728665</v>
+        <v>0.4532666458268209</v>
       </c>
       <c r="D252" t="n">
         <v>15.6</v>
@@ -9131,7 +9131,7 @@
         <v>6.1</v>
       </c>
       <c r="C253" t="n">
-        <v>0.01414874319771962</v>
+        <v>0.3368748380409433</v>
       </c>
       <c r="D253" t="n">
         <v>15.7</v>
@@ -9169,7 +9169,7 @@
         <v>5.4</v>
       </c>
       <c r="C254" t="n">
-        <v>0.01481582537517053</v>
+        <v>0.3421555252387449</v>
       </c>
       <c r="D254" t="n">
         <v>15.7</v>
@@ -9207,7 +9207,7 @@
         <v>5.1</v>
       </c>
       <c r="C255" t="n">
-        <v>0.0147209490428687</v>
+        <v>0.4251819897546508</v>
       </c>
       <c r="D255" t="n">
         <v>15.8</v>
@@ -9245,7 +9245,7 @@
         <v>3.9</v>
       </c>
       <c r="C256" t="n">
-        <v>0.01661519456454601</v>
+        <v>0.3903644224830142</v>
       </c>
       <c r="D256" t="n">
         <v>15.9</v>
@@ -9283,7 +9283,7 @@
         <v>4.1</v>
       </c>
       <c r="C257" t="n">
-        <v>0.01625916870415648</v>
+        <v>0.44559902200489</v>
       </c>
       <c r="D257" t="n">
         <v>15.9</v>
@@ -9321,7 +9321,7 @@
         <v>4.7</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0152954481198756</v>
+        <v>0.4020356234096692</v>
       </c>
       <c r="D258" t="n">
         <v>16</v>
@@ -9359,7 +9359,7 @@
         <v>4.7</v>
       </c>
       <c r="C259" t="n">
-        <v>0.01438716465018411</v>
+        <v>0.3940031562335613</v>
       </c>
       <c r="D259" t="n">
         <v>16.1</v>
@@ -9397,7 +9397,7 @@
         <v>4.5</v>
       </c>
       <c r="C260" t="n">
-        <v>0.01130876747141042</v>
+        <v>0.2990258365099534</v>
       </c>
       <c r="D260" t="n">
         <v>16.1</v>
@@ -9435,7 +9435,7 @@
         <v>7.2</v>
       </c>
       <c r="C261" t="n">
-        <v>0.01686138301231449</v>
+        <v>0.4013261761919798</v>
       </c>
       <c r="D261" t="n">
         <v>16.2</v>
@@ -9473,7 +9473,7 @@
         <v>7.3</v>
       </c>
       <c r="C262" t="n">
-        <v>0.01787135278514589</v>
+        <v>0.3759946949602122</v>
       </c>
       <c r="D262" t="n">
         <v>16.3</v>
@@ -9511,7 +9511,7 @@
         <v>5.7</v>
       </c>
       <c r="C263" t="n">
-        <v>0.01627138997298109</v>
+        <v>0.4142900030021014</v>
       </c>
       <c r="D263" t="n">
         <v>16.2</v>
@@ -9549,7 +9549,7 @@
         <v>5.3</v>
       </c>
       <c r="C264" t="n">
-        <v>0.01821214142761841</v>
+        <v>0.4743162108072048</v>
       </c>
       <c r="D264" t="n">
         <v>16.3</v>
@@ -9587,7 +9587,7 @@
         <v>5.6</v>
       </c>
       <c r="C265" t="n">
-        <v>0.01782018111254851</v>
+        <v>0.4259379042690815</v>
       </c>
       <c r="D265" t="n">
         <v>16.4</v>
@@ -9625,7 +9625,7 @@
         <v>5.6</v>
       </c>
       <c r="C266" t="n">
-        <v>0.01822676334871457</v>
+        <v>0.4070533948582729</v>
       </c>
       <c r="D266" t="n">
         <v>16.4</v>
@@ -9663,7 +9663,7 @@
         <v>4.4</v>
       </c>
       <c r="C267" t="n">
-        <v>0.01770766258853831</v>
+        <v>0.4072762395363812</v>
       </c>
       <c r="D267" t="n">
         <v>16.5</v>
@@ -9701,7 +9701,7 @@
         <v>3.9</v>
       </c>
       <c r="C268" t="n">
-        <v>0.01901087337776219</v>
+        <v>0.4079270431427569</v>
       </c>
       <c r="D268" t="n">
         <v>16.5</v>
@@ -9739,7 +9739,7 @@
         <v>3.4</v>
       </c>
       <c r="C269" t="n">
-        <v>0.02012601927353595</v>
+        <v>0.4551519644180875</v>
       </c>
       <c r="D269" t="n">
         <v>16.6</v>
@@ -9777,7 +9777,7 @@
         <v>3.7</v>
       </c>
       <c r="C270" t="n">
-        <v>0.01906927921623513</v>
+        <v>0.3768369489153254</v>
       </c>
       <c r="D270" t="n">
         <v>16.7</v>
@@ -9815,7 +9815,7 @@
         <v>3.9</v>
       </c>
       <c r="C271" t="n">
-        <v>0.01757322175732218</v>
+        <v>0.3891213389121339</v>
       </c>
       <c r="D271" t="n">
         <v>16.7</v>
@@ -9853,7 +9853,7 @@
         <v>3.4</v>
       </c>
       <c r="C272" t="n">
-        <v>0.01457112413425679</v>
+        <v>0.3372402770378263</v>
       </c>
       <c r="D272" t="n">
         <v>16.8</v>

--- a/data/gihun/dataset/서울시출산율모델.xlsx
+++ b/data/gihun/dataset/서울시출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.3460860366713681</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>5672</v>
       </c>
       <c r="F81" t="n">
         <v>74.48699999999999</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.003656804019773846</v>
+      </c>
       <c r="H81" t="n">
         <v>47</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.4411090264748802</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>4797</v>
       </c>
       <c r="F82" t="n">
         <v>74.708</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.003638066570478573</v>
+      </c>
       <c r="H82" t="n">
         <v>47.5</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.369162845984038</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>5889</v>
       </c>
       <c r="F83" t="n">
         <v>75.002</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.0036193291211833</v>
+      </c>
       <c r="H83" t="n">
         <v>48.2</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.3757926146960089</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>5362</v>
       </c>
       <c r="F84" t="n">
         <v>75.15000000000001</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.003600591671888027</v>
+      </c>
       <c r="H84" t="n">
         <v>48.8</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.2825257804774686</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>7079</v>
       </c>
       <c r="F85" t="n">
         <v>75.224</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.003581854222592754</v>
+      </c>
       <c r="H85" t="n">
         <v>49.1</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.3390769230769231</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>6500</v>
       </c>
       <c r="F86" t="n">
         <v>75.077</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.003563116773297481</v>
+      </c>
       <c r="H86" t="n">
         <v>49.2</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.3951325682627622</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>5054</v>
       </c>
       <c r="F87" t="n">
         <v>75.297</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.003544379324002208</v>
+      </c>
       <c r="H87" t="n">
         <v>49.3</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.3477606951871658</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>5984</v>
       </c>
       <c r="F88" t="n">
         <v>75.73999999999999</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.003525641874706935</v>
+      </c>
       <c r="H88" t="n">
         <v>49.5</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.4814302191464821</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>4335</v>
       </c>
       <c r="F89" t="n">
         <v>75.88800000000001</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.003506904425411662</v>
+      </c>
       <c r="H89" t="n">
         <v>50.1</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.3396476605417693</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>5279</v>
       </c>
       <c r="F90" t="n">
         <v>75.666</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.003488166976116389</v>
+      </c>
       <c r="H90" t="n">
         <v>50.9</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.2607884922749067</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>7508</v>
       </c>
       <c r="F91" t="n">
         <v>75.446</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003469429526821116</v>
+      </c>
       <c r="H91" t="n">
         <v>51.8</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.18786430960344</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>10465</v>
       </c>
       <c r="F92" t="n">
         <v>75.666</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003450692077525843</v>
+      </c>
       <c r="H92" t="n">
         <v>52.1</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.3040116703136397</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>6855</v>
       </c>
       <c r="F93" t="n">
         <v>75.81399999999999</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.00343195462823057</v>
+      </c>
       <c r="H93" t="n">
         <v>52.5</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.3375041708375042</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.491666666666667</v>
+      </c>
       <c r="E94" t="n">
         <v>5994</v>
       </c>
       <c r="F94" t="n">
         <v>76.256</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003414369306325863</v>
+      </c>
       <c r="H94" t="n">
         <v>52.7</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.3485213204951857</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9.383333333333333</v>
+      </c>
       <c r="E95" t="n">
         <v>5816</v>
       </c>
       <c r="F95" t="n">
         <v>76.699</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003396783984421157</v>
+      </c>
       <c r="H95" t="n">
         <v>53.1</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.3556709956709957</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>9.275</v>
+      </c>
       <c r="E96" t="n">
         <v>5775</v>
       </c>
       <c r="F96" t="n">
         <v>77.068</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.00337919866251645</v>
+      </c>
       <c r="H96" t="n">
         <v>53.4</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.2970559508860053</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>9.166666666666666</v>
+      </c>
       <c r="E97" t="n">
         <v>7167</v>
       </c>
       <c r="F97" t="n">
         <v>77.14100000000001</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003361613340611744</v>
+      </c>
       <c r="H97" t="n">
         <v>53.4</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.3205256154357951</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>9.058333333333334</v>
+      </c>
       <c r="E98" t="n">
         <v>6012</v>
       </c>
       <c r="F98" t="n">
         <v>77.14100000000001</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003344028018707037</v>
+      </c>
       <c r="H98" t="n">
         <v>53.4</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.3639074009119607</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="E99" t="n">
         <v>5702</v>
       </c>
       <c r="F99" t="n">
         <v>77.36199999999999</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.00332644269680233</v>
+      </c>
       <c r="H99" t="n">
         <v>53.4</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.3652624540287529</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>8.841666666666667</v>
+      </c>
       <c r="E100" t="n">
         <v>5982</v>
       </c>
       <c r="F100" t="n">
         <v>77.43600000000001</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003308857374897623</v>
+      </c>
       <c r="H100" t="n">
         <v>53.5</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.4007455731593663</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>8.733333333333334</v>
+      </c>
       <c r="E101" t="n">
         <v>4292</v>
       </c>
       <c r="F101" t="n">
         <v>77.878</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003291272052992917</v>
+      </c>
       <c r="H101" t="n">
         <v>53.6</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.3699723172121804</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>8.625</v>
+      </c>
       <c r="E102" t="n">
         <v>6141</v>
       </c>
       <c r="F102" t="n">
         <v>77.953</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.00327368673108821</v>
+      </c>
       <c r="H102" t="n">
         <v>53.7</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3031469011955476</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>8.516666666666667</v>
+      </c>
       <c r="E103" t="n">
         <v>7277</v>
       </c>
       <c r="F103" t="n">
         <v>78.026</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003256101409183504</v>
+      </c>
       <c r="H103" t="n">
         <v>53.6</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.2038141913488174</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>8.408333333333335</v>
+      </c>
       <c r="E104" t="n">
         <v>9386</v>
       </c>
       <c r="F104" t="n">
         <v>78.248</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003238516087278797</v>
+      </c>
       <c r="H104" t="n">
         <v>53.6</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>103.99</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H273" t="n">
         <v>103.5</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>104.64</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H274" t="n">
         <v>103.4</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>105.09</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H275" t="n">
         <v>103.3</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>105.74</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H276" t="n">
         <v>103.2</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>106.36</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H277" t="n">
         <v>103.2</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>106.88</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H278" t="n">
         <v>103.1</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>107.46</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H279" t="n">
         <v>103</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>107.58</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H280" t="n">
         <v>102.7</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>107.85</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H281" t="n">
         <v>102.1</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>108.16</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H282" t="n">
         <v>100.6</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>108.03</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H283" t="n">
         <v>97.7</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>108.47</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H284" t="n">
         <v>93</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>109.3</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.001266747665034174</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
